--- a/src/main/resources/testData.xlsx
+++ b/src/main/resources/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="13470" windowHeight="6060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="13950" windowHeight="3375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="f" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Daily" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -60,7 +61,7 @@
     <t>total</t>
   </si>
   <si>
-    <t>100</t>
+    <t>103</t>
   </si>
 </sst>
 </file>
@@ -117,6 +118,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -133,7 +202,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -481,7 +550,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/testData.xlsx
+++ b/src/main/resources/testData.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="13950" windowHeight="3375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="15345" windowHeight="3810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="f" sheetId="1" r:id="rId1"/>
     <sheet name="Top100" sheetId="2" r:id="rId2"/>
-    <sheet name="Daily" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:L11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>钟</t>
   </si>
@@ -62,6 +61,24 @@
   </si>
   <si>
     <t>103</t>
+  </si>
+  <si>
+    <t>定位方式</t>
+  </si>
+  <si>
+    <t>对象实体</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>wd</t>
+  </si>
+  <si>
+    <t>执行操作</t>
+  </si>
+  <si>
+    <t>sendKeys</t>
   </si>
 </sst>
 </file>
@@ -547,10 +564,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,36 +575,45 @@
     <col min="1" max="1" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/testData.xlsx
+++ b/src/main/resources/testData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="15345" windowHeight="3810" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1155" windowWidth="15165" windowHeight="4935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="f" sheetId="1" r:id="rId1"/>
     <sheet name="Top100" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L11"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="382">
   <si>
     <t>钟</t>
   </si>
@@ -51,34 +51,1117 @@
     <t>http://www.smartbuyglasses.com/</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>http://www.smartbuyglasses.com.hk/</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>定位方式</t>
-  </si>
-  <si>
-    <t>对象实体</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>wd</t>
-  </si>
-  <si>
-    <t>执行操作</t>
-  </si>
-  <si>
-    <t>sendKeys</t>
+    <t>designer-solbriller</t>
+  </si>
+  <si>
+    <t>designersolbriller</t>
+  </si>
+  <si>
+    <t>markowe-okulary-sloneczne</t>
+  </si>
+  <si>
+    <t>oculos-de-sol</t>
+  </si>
+  <si>
+    <t>occhiali-da-sole</t>
+  </si>
+  <si>
+    <t>lentes-de-sol-de-diseno</t>
+  </si>
+  <si>
+    <t>gafas-de-sol-de-diseno</t>
+  </si>
+  <si>
+    <t>designer-briller</t>
+  </si>
+  <si>
+    <t>designerbriller</t>
+  </si>
+  <si>
+    <t>markowe-okulary-korekcyjne</t>
+  </si>
+  <si>
+    <t>oculos-graduados</t>
+  </si>
+  <si>
+    <t>oculos-de-grau</t>
+  </si>
+  <si>
+    <t>occhiali-da-vista</t>
+  </si>
+  <si>
+    <t>lentes-de-diseno</t>
+  </si>
+  <si>
+    <t>gafas-de-diseno</t>
+  </si>
+  <si>
+    <t>sportsbriller</t>
+  </si>
+  <si>
+    <t>sportssolbriller</t>
+  </si>
+  <si>
+    <t>okulary-sportowe</t>
+  </si>
+  <si>
+    <t>oculos-desportivos</t>
+  </si>
+  <si>
+    <t>oculos-esportivos</t>
+  </si>
+  <si>
+    <t>occhiali-sportivi</t>
+  </si>
+  <si>
+    <t>lentes-deportivos</t>
+  </si>
+  <si>
+    <t>gafas-de-sol-deportivas</t>
+  </si>
+  <si>
+    <t>herre</t>
+  </si>
+  <si>
+    <t>maend</t>
+  </si>
+  <si>
+    <t>meskie</t>
+  </si>
+  <si>
+    <t>masculinos</t>
+  </si>
+  <si>
+    <t>uomo</t>
+  </si>
+  <si>
+    <t>hombres</t>
+  </si>
+  <si>
+    <t>dame</t>
+  </si>
+  <si>
+    <t>kvinder</t>
+  </si>
+  <si>
+    <t>damskie</t>
+  </si>
+  <si>
+    <t>femininos</t>
+  </si>
+  <si>
+    <t>donna</t>
+  </si>
+  <si>
+    <t>mujeres</t>
+  </si>
+  <si>
+    <t>junior</t>
+  </si>
+  <si>
+    <t>born</t>
+  </si>
+  <si>
+    <t>dzieciece</t>
+  </si>
+  <si>
+    <t>infantis</t>
+  </si>
+  <si>
+    <t>bambino</t>
+  </si>
+  <si>
+    <t>ninos</t>
+  </si>
+  <si>
+    <t>unisex</t>
+  </si>
+  <si>
+    <t>maend-og-kvinder</t>
+  </si>
+  <si>
+    <t>styrke</t>
+  </si>
+  <si>
+    <t>styrkeglas</t>
+  </si>
+  <si>
+    <t>korekcyjne</t>
+  </si>
+  <si>
+    <t>prescricao</t>
+  </si>
+  <si>
+    <t>con-prescrizione</t>
+  </si>
+  <si>
+    <t>prescripcion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lagersalg </t>
+  </si>
+  <si>
+    <t>lagersalg</t>
+  </si>
+  <si>
+    <t>okazje</t>
+  </si>
+  <si>
+    <t>saldos</t>
+  </si>
+  <si>
+    <t>outlet</t>
+  </si>
+  <si>
+    <t>in-saldo</t>
+  </si>
+  <si>
+    <t>liquidacion</t>
+  </si>
+  <si>
+    <t>polariserte</t>
+  </si>
+  <si>
+    <t>polariseret</t>
+  </si>
+  <si>
+    <t>polaryzowane</t>
+  </si>
+  <si>
+    <t>polarizado</t>
+  </si>
+  <si>
+    <t>polarizzati</t>
+  </si>
+  <si>
+    <t>polarizados</t>
+  </si>
+  <si>
+    <t>nyhet</t>
+  </si>
+  <si>
+    <t>nyheder</t>
+  </si>
+  <si>
+    <t>nowa-kolekcja</t>
+  </si>
+  <si>
+    <t>novidade</t>
+  </si>
+  <si>
+    <t>nuovi-arrivi</t>
+  </si>
+  <si>
+    <t>nuevos-modelos</t>
+  </si>
+  <si>
+    <t>pilot</t>
+  </si>
+  <si>
+    <t>aviator</t>
+  </si>
+  <si>
+    <t>aviador</t>
+  </si>
+  <si>
+    <t>goccia</t>
+  </si>
+  <si>
+    <t>wayfarer</t>
+  </si>
+  <si>
+    <t>quadrado</t>
+  </si>
+  <si>
+    <t>quadrato</t>
+  </si>
+  <si>
+    <t>cuadrados</t>
+  </si>
+  <si>
+    <t>cuadradas</t>
+  </si>
+  <si>
+    <t>butterfly</t>
+  </si>
+  <si>
+    <t>muchy</t>
+  </si>
+  <si>
+    <t>borboleta</t>
+  </si>
+  <si>
+    <t>farfalla</t>
+  </si>
+  <si>
+    <t>mariposa</t>
+  </si>
+  <si>
+    <t>cat-eye</t>
+  </si>
+  <si>
+    <t>kocie-oczy</t>
+  </si>
+  <si>
+    <t>gatinho</t>
+  </si>
+  <si>
+    <t>oval</t>
+  </si>
+  <si>
+    <t>owalne</t>
+  </si>
+  <si>
+    <t>ovali</t>
+  </si>
+  <si>
+    <t>ovalados</t>
+  </si>
+  <si>
+    <t>oversized</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>oversize</t>
+  </si>
+  <si>
+    <t>powiekszone</t>
+  </si>
+  <si>
+    <t>grandi</t>
+  </si>
+  <si>
+    <t>grantes</t>
+  </si>
+  <si>
+    <t>grandes</t>
+  </si>
+  <si>
+    <t>rektangulaere</t>
+  </si>
+  <si>
+    <t>rektangulaer</t>
+  </si>
+  <si>
+    <t>prostokatne</t>
+  </si>
+  <si>
+    <t>retangular</t>
+  </si>
+  <si>
+    <t>rettangolari</t>
+  </si>
+  <si>
+    <t>rectangulares</t>
+  </si>
+  <si>
+    <t>runde</t>
+  </si>
+  <si>
+    <t>rund</t>
+  </si>
+  <si>
+    <t>okragle</t>
+  </si>
+  <si>
+    <t>redondo</t>
+  </si>
+  <si>
+    <t>rotondi</t>
+  </si>
+  <si>
+    <t>redondos</t>
+  </si>
+  <si>
+    <t>monoglass</t>
+  </si>
+  <si>
+    <t>monoglas</t>
+  </si>
+  <si>
+    <t>pojedyncze</t>
+  </si>
+  <si>
+    <t>lente-unica</t>
+  </si>
+  <si>
+    <t>lente-unico</t>
+  </si>
+  <si>
+    <t>wraparound</t>
+  </si>
+  <si>
+    <t>wraparound-stil</t>
+  </si>
+  <si>
+    <t>panoramiczne</t>
+  </si>
+  <si>
+    <t>envolvido</t>
+  </si>
+  <si>
+    <t>avvolgente</t>
+  </si>
+  <si>
+    <t>envolventes</t>
+  </si>
+  <si>
+    <t>ski-goggles</t>
+  </si>
+  <si>
+    <t>skibriller</t>
+  </si>
+  <si>
+    <t>gogle</t>
+  </si>
+  <si>
+    <t>oculos-de-esqui</t>
+  </si>
+  <si>
+    <t>maschere-da-sci</t>
+  </si>
+  <si>
+    <t>antiparras</t>
+  </si>
+  <si>
+    <t>gafas-de-esqui</t>
+  </si>
+  <si>
+    <t>full-innfatning</t>
+  </si>
+  <si>
+    <t>fuldt-indfattet</t>
+  </si>
+  <si>
+    <t>pelne-ramki</t>
+  </si>
+  <si>
+    <t>integral</t>
+  </si>
+  <si>
+    <t>con-montatura-completa</t>
+  </si>
+  <si>
+    <t>marco-completo</t>
+  </si>
+  <si>
+    <t>delvis-innfatning</t>
+  </si>
+  <si>
+    <t>delvist-indfattet</t>
+  </si>
+  <si>
+    <t>polpelne-ramki</t>
+  </si>
+  <si>
+    <t>meio-aro</t>
+  </si>
+  <si>
+    <t>con-semi-montatura</t>
+  </si>
+  <si>
+    <t>marco-semi-completo</t>
+  </si>
+  <si>
+    <t>uten-innfatning</t>
+  </si>
+  <si>
+    <t>uindfattet</t>
+  </si>
+  <si>
+    <t>bez-ramki</t>
+  </si>
+  <si>
+    <t>sem-aro</t>
+  </si>
+  <si>
+    <t>senza-montatura</t>
+  </si>
+  <si>
+    <t>sin-marco</t>
+  </si>
+  <si>
+    <t>plast</t>
+  </si>
+  <si>
+    <t>plastik</t>
+  </si>
+  <si>
+    <t>plastikowe</t>
+  </si>
+  <si>
+    <t>plastico</t>
+  </si>
+  <si>
+    <t>plastica</t>
+  </si>
+  <si>
+    <t>metall</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>metalowe</t>
+  </si>
+  <si>
+    <t>metallo</t>
+  </si>
+  <si>
+    <t>titanium</t>
+  </si>
+  <si>
+    <t>tytanowe</t>
+  </si>
+  <si>
+    <t>titanio</t>
+  </si>
+  <si>
+    <t>bla</t>
+  </si>
+  <si>
+    <t>niebieskie</t>
+  </si>
+  <si>
+    <t>azul</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>brun</t>
+  </si>
+  <si>
+    <t>brazowe</t>
+  </si>
+  <si>
+    <t>marrom</t>
+  </si>
+  <si>
+    <t>marrone</t>
+  </si>
+  <si>
+    <t>cafe</t>
+  </si>
+  <si>
+    <t>gronn</t>
+  </si>
+  <si>
+    <t>gron</t>
+  </si>
+  <si>
+    <t>zielone</t>
+  </si>
+  <si>
+    <t>verde</t>
+  </si>
+  <si>
+    <t>gull</t>
+  </si>
+  <si>
+    <t>guld</t>
+  </si>
+  <si>
+    <t>zlote</t>
+  </si>
+  <si>
+    <t>dourado</t>
+  </si>
+  <si>
+    <t>oro</t>
+  </si>
+  <si>
+    <t>dorado</t>
+  </si>
+  <si>
+    <t>rosa</t>
+  </si>
+  <si>
+    <t>lyserod</t>
+  </si>
+  <si>
+    <t>rozowe</t>
+  </si>
+  <si>
+    <t>rod</t>
+  </si>
+  <si>
+    <t>czerwone</t>
+  </si>
+  <si>
+    <t>vermelho</t>
+  </si>
+  <si>
+    <t>rosso</t>
+  </si>
+  <si>
+    <t>rojo</t>
+  </si>
+  <si>
+    <t>gul</t>
+  </si>
+  <si>
+    <t>zolte</t>
+  </si>
+  <si>
+    <t>amarelo</t>
+  </si>
+  <si>
+    <t>giallo</t>
+  </si>
+  <si>
+    <t>amarillo</t>
+  </si>
+  <si>
+    <t>hvit</t>
+  </si>
+  <si>
+    <t>hvid</t>
+  </si>
+  <si>
+    <t>biale</t>
+  </si>
+  <si>
+    <t>branco</t>
+  </si>
+  <si>
+    <t>bianco</t>
+  </si>
+  <si>
+    <t>blanco</t>
+  </si>
+  <si>
+    <t>fiolett</t>
+  </si>
+  <si>
+    <t>violet</t>
+  </si>
+  <si>
+    <t>fioletowe</t>
+  </si>
+  <si>
+    <t>violeta</t>
+  </si>
+  <si>
+    <t>viola</t>
+  </si>
+  <si>
+    <t>krystall</t>
+  </si>
+  <si>
+    <t>krystal</t>
+  </si>
+  <si>
+    <t>krysztalowe</t>
+  </si>
+  <si>
+    <t>transparente</t>
+  </si>
+  <si>
+    <t>trasparente</t>
+  </si>
+  <si>
+    <t>cristal</t>
+  </si>
+  <si>
+    <t>burgunder</t>
+  </si>
+  <si>
+    <t>bourgogne</t>
+  </si>
+  <si>
+    <t>bordowe</t>
+  </si>
+  <si>
+    <t>bordo</t>
+  </si>
+  <si>
+    <t>bordeaux</t>
+  </si>
+  <si>
+    <t>borgona</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>czarne</t>
+  </si>
+  <si>
+    <t>preto</t>
+  </si>
+  <si>
+    <t>nero</t>
+  </si>
+  <si>
+    <t>negro</t>
+  </si>
+  <si>
+    <t>tortoise</t>
+  </si>
+  <si>
+    <t>skildpaddefarvet</t>
+  </si>
+  <si>
+    <t>zolwiowe</t>
+  </si>
+  <si>
+    <t>havana</t>
+  </si>
+  <si>
+    <t>carey</t>
+  </si>
+  <si>
+    <t>solv</t>
+  </si>
+  <si>
+    <t>srebrne</t>
+  </si>
+  <si>
+    <t>prata</t>
+  </si>
+  <si>
+    <t>argento</t>
+  </si>
+  <si>
+    <t>plata</t>
+  </si>
+  <si>
+    <t>gra</t>
+  </si>
+  <si>
+    <t>szare</t>
+  </si>
+  <si>
+    <t>cinza</t>
+  </si>
+  <si>
+    <t>grigio</t>
+  </si>
+  <si>
+    <t>gris</t>
+  </si>
+  <si>
+    <t>oransje</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>pomaranczowe</t>
+  </si>
+  <si>
+    <t>laranja</t>
+  </si>
+  <si>
+    <t>arancione</t>
+  </si>
+  <si>
+    <t>naranja</t>
+  </si>
+  <si>
+    <t>pa-tilbud</t>
+  </si>
+  <si>
+    <t>udsalg</t>
+  </si>
+  <si>
+    <t>em-promocao</t>
+  </si>
+  <si>
+    <t>en-descuento</t>
+  </si>
+  <si>
+    <t>gogle-narciarskie</t>
+  </si>
+  <si>
+    <t>golf</t>
+  </si>
+  <si>
+    <t>goldbriller</t>
+  </si>
+  <si>
+    <t>golfe</t>
+  </si>
+  <si>
+    <t>jogging</t>
+  </si>
+  <si>
+    <t>lobebriller</t>
+  </si>
+  <si>
+    <t>corrida</t>
+  </si>
+  <si>
+    <t>corsa</t>
+  </si>
+  <si>
+    <t>para-correr</t>
+  </si>
+  <si>
+    <t>sykling</t>
+  </si>
+  <si>
+    <t>cykelbriller</t>
+  </si>
+  <si>
+    <t>kolarstwo</t>
+  </si>
+  <si>
+    <t>ciclismo</t>
+  </si>
+  <si>
+    <t>baseball</t>
+  </si>
+  <si>
+    <t>baseballbriller</t>
+  </si>
+  <si>
+    <t>basebol</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>fiske</t>
+  </si>
+  <si>
+    <t>briller-til-fiskeri</t>
+  </si>
+  <si>
+    <t>wedkarstwo</t>
+  </si>
+  <si>
+    <t>pesca</t>
+  </si>
+  <si>
+    <t>beisbol</t>
+  </si>
+  <si>
+    <t>kjore</t>
+  </si>
+  <si>
+    <t>motorsportsbriller</t>
+  </si>
+  <si>
+    <t>do-samochodu</t>
+  </si>
+  <si>
+    <t>conducao</t>
+  </si>
+  <si>
+    <t>guida-sportiva</t>
+  </si>
+  <si>
+    <t>conduccion</t>
+  </si>
+  <si>
+    <t>tennis</t>
+  </si>
+  <si>
+    <t>tennisbriller</t>
+  </si>
+  <si>
+    <t>tenis</t>
+  </si>
+  <si>
+    <t>vannsport</t>
+  </si>
+  <si>
+    <t>briller-til-vandsport</t>
+  </si>
+  <si>
+    <t>sporty-wodne</t>
+  </si>
+  <si>
+    <t>desportos-aquaticos</t>
+  </si>
+  <si>
+    <t>esportes-aquaticos</t>
+  </si>
+  <si>
+    <t>sport-acquatici</t>
+  </si>
+  <si>
+    <t>deportes-de-agua</t>
+  </si>
+  <si>
+    <t>hjelp</t>
+  </si>
+  <si>
+    <t>hjaelp</t>
+  </si>
+  <si>
+    <t>pomoc</t>
+  </si>
+  <si>
+    <t>ajuda</t>
+  </si>
+  <si>
+    <t>aiuto</t>
+  </si>
+  <si>
+    <t>ayuda</t>
+  </si>
+  <si>
+    <t>faq</t>
+  </si>
+  <si>
+    <t>sporgsmal</t>
+  </si>
+  <si>
+    <t>preguntas-frecuentes</t>
+  </si>
+  <si>
+    <t>ordre</t>
+  </si>
+  <si>
+    <t>zamowienie</t>
+  </si>
+  <si>
+    <t>pedido</t>
+  </si>
+  <si>
+    <t>ordine</t>
+  </si>
+  <si>
+    <t>orden</t>
+  </si>
+  <si>
+    <t>hurtig-levering</t>
+  </si>
+  <si>
+    <t>szybka-wysylka</t>
+  </si>
+  <si>
+    <t>entrega-rapida</t>
+  </si>
+  <si>
+    <t>despacho-rapido</t>
+  </si>
+  <si>
+    <t>spedizione-veloce</t>
+  </si>
+  <si>
+    <t>envio-rapido</t>
+  </si>
+  <si>
+    <t>retur</t>
+  </si>
+  <si>
+    <t>returnering</t>
+  </si>
+  <si>
+    <t>zwroty</t>
+  </si>
+  <si>
+    <t>devolucoes</t>
+  </si>
+  <si>
+    <t>resi</t>
+  </si>
+  <si>
+    <t>devoluciones</t>
+  </si>
+  <si>
+    <t>shopping-guide</t>
+  </si>
+  <si>
+    <t>przewodnik-po-zakupach</t>
+  </si>
+  <si>
+    <t>guias-de-compra</t>
+  </si>
+  <si>
+    <t>guide-allo-shopping</t>
+  </si>
+  <si>
+    <t>lookbook-solbriller</t>
+  </si>
+  <si>
+    <t>inspiration-solbriller</t>
+  </si>
+  <si>
+    <t>kupuj-wedlug-stylu</t>
+  </si>
+  <si>
+    <t>lookbook-oculos-de-sol</t>
+  </si>
+  <si>
+    <t>catalogo-occhiali</t>
+  </si>
+  <si>
+    <t>catalogo-lentes-de-sol</t>
+  </si>
+  <si>
+    <t>catalogo-gafas-de-sol</t>
+  </si>
+  <si>
+    <t>try-on</t>
+  </si>
+  <si>
+    <t>proverum</t>
+  </si>
+  <si>
+    <t>wirtualna-przymiarka</t>
+  </si>
+  <si>
+    <t>prova</t>
+  </si>
+  <si>
+    <t>probador</t>
+  </si>
+  <si>
+    <t>best-pris-garanti</t>
+  </si>
+  <si>
+    <t>prisgaranti</t>
+  </si>
+  <si>
+    <t>gwarancja-najlepszych-cen</t>
+  </si>
+  <si>
+    <t>melhor-preco-garantido</t>
+  </si>
+  <si>
+    <t>garanzia-miglior-prezzo</t>
+  </si>
+  <si>
+    <t>mejor-precio-garantizado</t>
+  </si>
+  <si>
+    <t>om-oss</t>
+  </si>
+  <si>
+    <t>om-os</t>
+  </si>
+  <si>
+    <t>o-nas</t>
+  </si>
+  <si>
+    <t>sobre-a-ow</t>
+  </si>
+  <si>
+    <t>chi-siamo</t>
+  </si>
+  <si>
+    <t>sobre-nosotros</t>
+  </si>
+  <si>
+    <t>sikker</t>
+  </si>
+  <si>
+    <t>sikker-betaling</t>
+  </si>
+  <si>
+    <t>oryginalne-produkty</t>
+  </si>
+  <si>
+    <t>seguranca</t>
+  </si>
+  <si>
+    <t>sicurezza</t>
+  </si>
+  <si>
+    <t>seguridad</t>
+  </si>
+  <si>
+    <t>samfunn</t>
+  </si>
+  <si>
+    <t>velgorenhed</t>
+  </si>
+  <si>
+    <t>akcja-charytatywna</t>
+  </si>
+  <si>
+    <t>comunidade</t>
+  </si>
+  <si>
+    <t>comunita</t>
+  </si>
+  <si>
+    <t>comunidad</t>
+  </si>
+  <si>
+    <t>favoritter</t>
+  </si>
+  <si>
+    <t>favoriter</t>
+  </si>
+  <si>
+    <t>ulubione</t>
+  </si>
+  <si>
+    <t>favoritos</t>
+  </si>
+  <si>
+    <t>preferiti</t>
+  </si>
+  <si>
+    <t>handlekurv</t>
+  </si>
+  <si>
+    <t>indkobskurv</t>
+  </si>
+  <si>
+    <t>koszyk</t>
+  </si>
+  <si>
+    <t>carrinho</t>
+  </si>
+  <si>
+    <t>carrello</t>
+  </si>
+  <si>
+    <t>carrito</t>
+  </si>
+  <si>
+    <t>gc-betaling</t>
+  </si>
+  <si>
+    <t>gc-check-ud</t>
+  </si>
+  <si>
+    <t>gc-platnosci</t>
+  </si>
+  <si>
+    <t>checkout-gc</t>
+  </si>
+  <si>
+    <t>pagamento-gc</t>
+  </si>
+  <si>
+    <t>pago-gc</t>
+  </si>
+  <si>
+    <t>http://www.smartbuyglasses.no</t>
+  </si>
+  <si>
+    <t>http://www.smartbuyglasses.dk</t>
+  </si>
+  <si>
+    <t>http://www.optykaworld.pl</t>
+  </si>
+  <si>
+    <t>http://www.oculosworld.com.pt</t>
+  </si>
+  <si>
+    <t>http://www.oculosworld.com.br</t>
+  </si>
+  <si>
+    <t>http://www.smartbuyglasses.it</t>
+  </si>
+  <si>
+    <t>http://www.visiondirecta.cl</t>
+  </si>
+  <si>
+    <t>http://www.gafasworld.com.co</t>
+  </si>
+  <si>
+    <t>http://www.visiondirecta.com.ar</t>
   </si>
 </sst>
 </file>
@@ -123,11 +1206,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -135,74 +1222,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -219,7 +1238,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -564,56 +1583,1952 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:BR10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:E2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="BP2" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="BQ2" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="BR2" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="AZ3" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="BA3" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="BE3" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="BF3" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="BK3" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="BL3" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="BM3" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="BO3" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BP3" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="BQ3" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="BR3" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX4" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="AY4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="AZ4" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="BD4" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="BE4" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="BF4" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="BG4" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="BH4" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="BI4" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="BJ4" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="BK4" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="BL4" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="BM4" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="BN4" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="BO4" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="BP4" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="BQ4" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="BR4" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AP5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT5" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV5" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="AW5" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX5" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AY5" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ5" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="BA5" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="BB5" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="BC5" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="BD5" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="BE5" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="BF5" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="BG5" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="BH5" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="BI5" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="BJ5" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="BK5" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="BL5" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="BM5" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="BN5" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BO5" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="BP5" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="BQ5" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="BR5" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AY6" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ6" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="BC6" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="BD6" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="BE6" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="BF6" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="BG6" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="BH6" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="BI6" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="BJ6" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="BK6" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="BL6" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="BM6" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="BN6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BO6" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="BP6" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="BQ6" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="BR6" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AY7" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="AZ7" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="BA7" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="BB7" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="BC7" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="BD7" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="BE7" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="BF7" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="BG7" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="BH7" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="BI7" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="BJ7" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="BK7" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="BL7" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="BM7" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="BN7" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="BO7" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="BP7" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="BQ7" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="BR7" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
-        <v>19</v>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI8" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN8" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AO8" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="AP8" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ8" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR8" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS8" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AT8" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV8" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW8" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="AX8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AY8" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="AZ8" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="BA8" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BB8" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="BC8" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="BD8" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="BE8" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="BF8" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="BG8" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="BH8" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="BI8" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="BJ8" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="BK8" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="BL8" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="BM8" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="BN8" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="BO8" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="BP8" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="BQ8" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="BR8" s="4" t="s">
+        <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="9" spans="1:70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN9" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AO9" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="AP9" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ9" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR9" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS9" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AT9" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV9" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW9" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="AX9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AY9" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AZ9" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="BA9" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BB9" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="BC9" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="BD9" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="BE9" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="BF9" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="BG9" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="BH9" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="BI9" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="BJ9" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="BK9" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="BL9" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="BM9" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="BN9" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="BO9" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="BP9" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="BQ9" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="BR9" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI10" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL10" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM10" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN10" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AO10" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="AP10" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ10" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR10" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS10" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AT10" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV10" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW10" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="AX10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AY10" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="AZ10" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="BA10" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BB10" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="BC10" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="BD10" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="BE10" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="BF10" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="BG10" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="BH10" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="BI10" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="BJ10" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="BK10" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="BL10" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="BM10" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="BN10" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="BO10" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="BP10" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="BQ10" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="BR10" s="4" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>